--- a/Transformed_Dataset/T_SI_2000.xlsx
+++ b/Transformed_Dataset/T_SI_2000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahla\Desktop\ISSA Project\Transformed_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahla\Desktop\Sikkim-Rainfall-Prediction\Transformed_Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEC2BEF-9039-41FD-B5AE-91A12CC2FE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210929B6-179A-42D0-B674-9571B4FA696E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{543EABC4-97E9-4B0E-892B-096507363A5A}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="379">
   <si>
-    <t>FID</t>
-  </si>
-  <si>
     <t>Day_1</t>
   </si>
   <si>
@@ -1171,6 +1168,9 @@
   </si>
   <si>
     <t>Loc_10</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1526,7 @@
   <dimension ref="A1:M367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1537,43 +1537,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" t="s">
         <v>367</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>368</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>369</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>370</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>371</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>372</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>373</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>374</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>375</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>376</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>377</v>
-      </c>
-      <c r="M1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -1581,7 +1581,7 @@
         <v>36526</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1623,7 +1623,7 @@
         <v>36527</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1665,7 +1665,7 @@
         <v>36528</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>36529</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>36530</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>36531</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>36532</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>36533</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1917,7 +1917,7 @@
         <v>36534</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>36535</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>36536</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>36537</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>36538</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>36539</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>36540</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>36541</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>36542</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>36543</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>36544</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>36545</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -2421,7 +2421,7 @@
         <v>36546</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -2463,7 +2463,7 @@
         <v>36547</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -2505,7 +2505,7 @@
         <v>36548</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -2547,7 +2547,7 @@
         <v>36549</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2589,7 +2589,7 @@
         <v>36550</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -2631,7 +2631,7 @@
         <v>36551</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2673,7 +2673,7 @@
         <v>36552</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2715,7 +2715,7 @@
         <v>36553</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2757,7 +2757,7 @@
         <v>36554</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2799,7 +2799,7 @@
         <v>36555</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>36556</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>36557</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -2925,7 +2925,7 @@
         <v>36558</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2967,7 +2967,7 @@
         <v>36559</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>36560</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>36561</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>36562</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3135,7 +3135,7 @@
         <v>36563</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>36564</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3219,7 +3219,7 @@
         <v>36565</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -3261,7 +3261,7 @@
         <v>36566</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -3303,7 +3303,7 @@
         <v>36567</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>36568</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>36569</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>36570</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>36571</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -3513,7 +3513,7 @@
         <v>36572</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>36573</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>36574</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -3639,7 +3639,7 @@
         <v>36575</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>36576</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>36577</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3765,7 +3765,7 @@
         <v>36578</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3807,7 +3807,7 @@
         <v>36579</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>36580</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>36581</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>36582</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -3975,7 +3975,7 @@
         <v>36583</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>36584</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4059,7 +4059,7 @@
         <v>36585</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>36586</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -4143,7 +4143,7 @@
         <v>36587</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -4185,7 +4185,7 @@
         <v>36588</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64">
         <v>6</v>
@@ -4227,7 +4227,7 @@
         <v>36589</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -4269,7 +4269,7 @@
         <v>36590</v>
       </c>
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -4311,7 +4311,7 @@
         <v>36591</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>36592</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -4395,7 +4395,7 @@
         <v>36593</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -4437,7 +4437,7 @@
         <v>36594</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4479,7 +4479,7 @@
         <v>36595</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -4521,7 +4521,7 @@
         <v>36596</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -4563,7 +4563,7 @@
         <v>36597</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -4605,7 +4605,7 @@
         <v>36598</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4647,7 +4647,7 @@
         <v>36599</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -4689,7 +4689,7 @@
         <v>36600</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -4731,7 +4731,7 @@
         <v>36601</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77">
         <v>19</v>
@@ -4773,7 +4773,7 @@
         <v>36602</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -4815,7 +4815,7 @@
         <v>36603</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -4857,7 +4857,7 @@
         <v>36604</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -4899,7 +4899,7 @@
         <v>36605</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4941,7 +4941,7 @@
         <v>36606</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>36607</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>36608</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -5067,7 +5067,7 @@
         <v>36609</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>36610</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -5151,7 +5151,7 @@
         <v>36611</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>36612</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -5235,7 +5235,7 @@
         <v>36613</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -5277,7 +5277,7 @@
         <v>36614</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -5319,7 +5319,7 @@
         <v>36615</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>36616</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -5403,7 +5403,7 @@
         <v>36617</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -5445,7 +5445,7 @@
         <v>36618</v>
       </c>
       <c r="B94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -5487,7 +5487,7 @@
         <v>36619</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>36620</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5571,7 +5571,7 @@
         <v>36621</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>36622</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -5655,7 +5655,7 @@
         <v>36623</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>36624</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5739,7 +5739,7 @@
         <v>36625</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>36626</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C102">
         <v>5</v>
@@ -5823,7 +5823,7 @@
         <v>36627</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>36628</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -5907,7 +5907,7 @@
         <v>36629</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         <v>36630</v>
       </c>
       <c r="B106" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -5991,7 +5991,7 @@
         <v>36631</v>
       </c>
       <c r="B107" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>36632</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C108">
         <v>12</v>
@@ -6075,7 +6075,7 @@
         <v>36633</v>
       </c>
       <c r="B109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -6117,7 +6117,7 @@
         <v>36634</v>
       </c>
       <c r="B110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -6159,7 +6159,7 @@
         <v>36635</v>
       </c>
       <c r="B111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -6201,7 +6201,7 @@
         <v>36636</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C112">
         <v>3</v>
@@ -6243,7 +6243,7 @@
         <v>36637</v>
       </c>
       <c r="B113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C113">
         <v>12</v>
@@ -6285,7 +6285,7 @@
         <v>36638</v>
       </c>
       <c r="B114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -6327,7 +6327,7 @@
         <v>36639</v>
       </c>
       <c r="B115" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115">
         <v>3</v>
@@ -6369,7 +6369,7 @@
         <v>36640</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C116">
         <v>24</v>
@@ -6411,7 +6411,7 @@
         <v>36641</v>
       </c>
       <c r="B117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -6453,7 +6453,7 @@
         <v>36642</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -6495,7 +6495,7 @@
         <v>36643</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C119">
         <v>12</v>
@@ -6537,7 +6537,7 @@
         <v>36644</v>
       </c>
       <c r="B120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120">
         <v>6</v>
@@ -6579,7 +6579,7 @@
         <v>36645</v>
       </c>
       <c r="B121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C121">
         <v>9</v>
@@ -6621,7 +6621,7 @@
         <v>36646</v>
       </c>
       <c r="B122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C122">
         <v>3</v>
@@ -6663,7 +6663,7 @@
         <v>36647</v>
       </c>
       <c r="B123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C123">
         <v>26</v>
@@ -6705,7 +6705,7 @@
         <v>36648</v>
       </c>
       <c r="B124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C124">
         <v>8</v>
@@ -6747,7 +6747,7 @@
         <v>36649</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -6789,7 +6789,7 @@
         <v>36650</v>
       </c>
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -6831,7 +6831,7 @@
         <v>36651</v>
       </c>
       <c r="B127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>36652</v>
       </c>
       <c r="B128" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -6915,7 +6915,7 @@
         <v>36653</v>
       </c>
       <c r="B129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -6957,7 +6957,7 @@
         <v>36654</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -6999,7 +6999,7 @@
         <v>36655</v>
       </c>
       <c r="B131" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C131">
         <v>8</v>
@@ -7041,7 +7041,7 @@
         <v>36656</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C132">
         <v>2</v>
@@ -7083,7 +7083,7 @@
         <v>36657</v>
       </c>
       <c r="B133" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>36658</v>
       </c>
       <c r="B134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>36659</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -7209,7 +7209,7 @@
         <v>36660</v>
       </c>
       <c r="B136" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -7251,7 +7251,7 @@
         <v>36661</v>
       </c>
       <c r="B137" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C137">
         <v>15</v>
@@ -7293,7 +7293,7 @@
         <v>36662</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C138">
         <v>8</v>
@@ -7335,7 +7335,7 @@
         <v>36663</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139">
         <v>8</v>
@@ -7377,7 +7377,7 @@
         <v>36664</v>
       </c>
       <c r="B140" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C140">
         <v>52</v>
@@ -7419,7 +7419,7 @@
         <v>36665</v>
       </c>
       <c r="B141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C141">
         <v>16</v>
@@ -7461,7 +7461,7 @@
         <v>36666</v>
       </c>
       <c r="B142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C142">
         <v>10</v>
@@ -7503,7 +7503,7 @@
         <v>36667</v>
       </c>
       <c r="B143" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C143">
         <v>12</v>
@@ -7545,7 +7545,7 @@
         <v>36668</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C144">
         <v>15</v>
@@ -7587,7 +7587,7 @@
         <v>36669</v>
       </c>
       <c r="B145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -7629,7 +7629,7 @@
         <v>36670</v>
       </c>
       <c r="B146" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C146">
         <v>5</v>
@@ -7671,7 +7671,7 @@
         <v>36671</v>
       </c>
       <c r="B147" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C147">
         <v>9</v>
@@ -7713,7 +7713,7 @@
         <v>36672</v>
       </c>
       <c r="B148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C148">
         <v>9</v>
@@ -7755,7 +7755,7 @@
         <v>36673</v>
       </c>
       <c r="B149" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -7797,7 +7797,7 @@
         <v>36674</v>
       </c>
       <c r="B150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -7839,7 +7839,7 @@
         <v>36675</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -7881,7 +7881,7 @@
         <v>36676</v>
       </c>
       <c r="B152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C152">
         <v>7</v>
@@ -7923,7 +7923,7 @@
         <v>36677</v>
       </c>
       <c r="B153" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -7965,7 +7965,7 @@
         <v>36678</v>
       </c>
       <c r="B154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C154">
         <v>4</v>
@@ -8007,7 +8007,7 @@
         <v>36679</v>
       </c>
       <c r="B155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C155">
         <v>2</v>
@@ -8049,7 +8049,7 @@
         <v>36680</v>
       </c>
       <c r="B156" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>36681</v>
       </c>
       <c r="B157" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -8133,7 +8133,7 @@
         <v>36682</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C158">
         <v>6</v>
@@ -8175,7 +8175,7 @@
         <v>36683</v>
       </c>
       <c r="B159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C159">
         <v>9</v>
@@ -8217,7 +8217,7 @@
         <v>36684</v>
       </c>
       <c r="B160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C160">
         <v>33</v>
@@ -8259,7 +8259,7 @@
         <v>36685</v>
       </c>
       <c r="B161" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>36686</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -8343,7 +8343,7 @@
         <v>36687</v>
       </c>
       <c r="B163" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C163">
         <v>12</v>
@@ -8385,7 +8385,7 @@
         <v>36688</v>
       </c>
       <c r="B164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C164">
         <v>13</v>
@@ -8427,7 +8427,7 @@
         <v>36689</v>
       </c>
       <c r="B165" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C165">
         <v>6</v>
@@ -8469,7 +8469,7 @@
         <v>36690</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C166">
         <v>6</v>
@@ -8511,7 +8511,7 @@
         <v>36691</v>
       </c>
       <c r="B167" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C167">
         <v>22</v>
@@ -8553,7 +8553,7 @@
         <v>36692</v>
       </c>
       <c r="B168" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C168">
         <v>7</v>
@@ -8595,7 +8595,7 @@
         <v>36693</v>
       </c>
       <c r="B169" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C169">
         <v>6</v>
@@ -8637,7 +8637,7 @@
         <v>36694</v>
       </c>
       <c r="B170" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>36695</v>
       </c>
       <c r="B171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C171">
         <v>7</v>
@@ -8721,7 +8721,7 @@
         <v>36696</v>
       </c>
       <c r="B172" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C172">
         <v>45</v>
@@ -8763,7 +8763,7 @@
         <v>36697</v>
       </c>
       <c r="B173" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C173">
         <v>4</v>
@@ -8805,7 +8805,7 @@
         <v>36698</v>
       </c>
       <c r="B174" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C174">
         <v>16</v>
@@ -8847,7 +8847,7 @@
         <v>36699</v>
       </c>
       <c r="B175" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C175">
         <v>23</v>
@@ -8889,7 +8889,7 @@
         <v>36700</v>
       </c>
       <c r="B176" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C176">
         <v>29</v>
@@ -8931,7 +8931,7 @@
         <v>36701</v>
       </c>
       <c r="B177" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -8973,7 +8973,7 @@
         <v>36702</v>
       </c>
       <c r="B178" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C178">
         <v>15</v>
@@ -9015,7 +9015,7 @@
         <v>36703</v>
       </c>
       <c r="B179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -9057,7 +9057,7 @@
         <v>36704</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C180">
         <v>43</v>
@@ -9099,7 +9099,7 @@
         <v>36705</v>
       </c>
       <c r="B181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C181">
         <v>14</v>
@@ -9141,7 +9141,7 @@
         <v>36706</v>
       </c>
       <c r="B182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C182">
         <v>11</v>
@@ -9183,7 +9183,7 @@
         <v>36707</v>
       </c>
       <c r="B183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C183">
         <v>21</v>
@@ -9225,7 +9225,7 @@
         <v>36708</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C184">
         <v>7</v>
@@ -9267,7 +9267,7 @@
         <v>36709</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C185">
         <v>26</v>
@@ -9309,7 +9309,7 @@
         <v>36710</v>
       </c>
       <c r="B186" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -9351,7 +9351,7 @@
         <v>36711</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C187">
         <v>8</v>
@@ -9393,7 +9393,7 @@
         <v>36712</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C188">
         <v>17</v>
@@ -9435,7 +9435,7 @@
         <v>36713</v>
       </c>
       <c r="B189" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C189">
         <v>8</v>
@@ -9477,7 +9477,7 @@
         <v>36714</v>
       </c>
       <c r="B190" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -9519,7 +9519,7 @@
         <v>36715</v>
       </c>
       <c r="B191" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C191">
         <v>10</v>
@@ -9561,7 +9561,7 @@
         <v>36716</v>
       </c>
       <c r="B192" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C192">
         <v>19</v>
@@ -9603,7 +9603,7 @@
         <v>36717</v>
       </c>
       <c r="B193" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C193">
         <v>10</v>
@@ -9645,7 +9645,7 @@
         <v>36718</v>
       </c>
       <c r="B194" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C194">
         <v>3</v>
@@ -9687,7 +9687,7 @@
         <v>36719</v>
       </c>
       <c r="B195" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C195">
         <v>26</v>
@@ -9729,7 +9729,7 @@
         <v>36720</v>
       </c>
       <c r="B196" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C196">
         <v>23</v>
@@ -9771,7 +9771,7 @@
         <v>36721</v>
       </c>
       <c r="B197" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C197">
         <v>4</v>
@@ -9813,7 +9813,7 @@
         <v>36722</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C198">
         <v>16</v>
@@ -9855,7 +9855,7 @@
         <v>36723</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C199">
         <v>3</v>
@@ -9897,7 +9897,7 @@
         <v>36724</v>
       </c>
       <c r="B200" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C200">
         <v>3</v>
@@ -9939,7 +9939,7 @@
         <v>36725</v>
       </c>
       <c r="B201" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C201">
         <v>28</v>
@@ -9981,7 +9981,7 @@
         <v>36726</v>
       </c>
       <c r="B202" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C202">
         <v>14</v>
@@ -10023,7 +10023,7 @@
         <v>36727</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C203">
         <v>13</v>
@@ -10065,7 +10065,7 @@
         <v>36728</v>
       </c>
       <c r="B204" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C204">
         <v>7</v>
@@ -10107,7 +10107,7 @@
         <v>36729</v>
       </c>
       <c r="B205" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -10149,7 +10149,7 @@
         <v>36730</v>
       </c>
       <c r="B206" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C206">
         <v>3</v>
@@ -10191,7 +10191,7 @@
         <v>36731</v>
       </c>
       <c r="B207" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C207">
         <v>3</v>
@@ -10233,7 +10233,7 @@
         <v>36732</v>
       </c>
       <c r="B208" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C208">
         <v>63</v>
@@ -10275,7 +10275,7 @@
         <v>36733</v>
       </c>
       <c r="B209" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C209">
         <v>26</v>
@@ -10317,7 +10317,7 @@
         <v>36734</v>
       </c>
       <c r="B210" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -10359,7 +10359,7 @@
         <v>36735</v>
       </c>
       <c r="B211" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C211">
         <v>6</v>
@@ -10401,7 +10401,7 @@
         <v>36736</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>36737</v>
       </c>
       <c r="B213" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C213">
         <v>3</v>
@@ -10485,7 +10485,7 @@
         <v>36738</v>
       </c>
       <c r="B214" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -10527,7 +10527,7 @@
         <v>36739</v>
       </c>
       <c r="B215" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C215">
         <v>17</v>
@@ -10569,7 +10569,7 @@
         <v>36740</v>
       </c>
       <c r="B216" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C216">
         <v>37</v>
@@ -10611,7 +10611,7 @@
         <v>36741</v>
       </c>
       <c r="B217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C217">
         <v>9</v>
@@ -10653,7 +10653,7 @@
         <v>36742</v>
       </c>
       <c r="B218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C218">
         <v>47</v>
@@ -10695,7 +10695,7 @@
         <v>36743</v>
       </c>
       <c r="B219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C219">
         <v>24</v>
@@ -10737,7 +10737,7 @@
         <v>36744</v>
       </c>
       <c r="B220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -10779,7 +10779,7 @@
         <v>36745</v>
       </c>
       <c r="B221" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C221">
         <v>7</v>
@@ -10821,7 +10821,7 @@
         <v>36746</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C222">
         <v>25</v>
@@ -10863,7 +10863,7 @@
         <v>36747</v>
       </c>
       <c r="B223" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C223">
         <v>9</v>
@@ -10905,7 +10905,7 @@
         <v>36748</v>
       </c>
       <c r="B224" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C224">
         <v>15</v>
@@ -10947,7 +10947,7 @@
         <v>36749</v>
       </c>
       <c r="B225" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C225">
         <v>15</v>
@@ -10989,7 +10989,7 @@
         <v>36750</v>
       </c>
       <c r="B226" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C226">
         <v>13</v>
@@ -11031,7 +11031,7 @@
         <v>36751</v>
       </c>
       <c r="B227" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C227">
         <v>12</v>
@@ -11073,7 +11073,7 @@
         <v>36752</v>
       </c>
       <c r="B228" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C228">
         <v>12</v>
@@ -11115,7 +11115,7 @@
         <v>36753</v>
       </c>
       <c r="B229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C229">
         <v>18</v>
@@ -11157,7 +11157,7 @@
         <v>36754</v>
       </c>
       <c r="B230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -11199,7 +11199,7 @@
         <v>36755</v>
       </c>
       <c r="B231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C231">
         <v>4</v>
@@ -11241,7 +11241,7 @@
         <v>36756</v>
       </c>
       <c r="B232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -11283,7 +11283,7 @@
         <v>36757</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C233">
         <v>10</v>
@@ -11325,7 +11325,7 @@
         <v>36758</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C234">
         <v>8</v>
@@ -11367,7 +11367,7 @@
         <v>36759</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C235">
         <v>10</v>
@@ -11409,7 +11409,7 @@
         <v>36760</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -11451,7 +11451,7 @@
         <v>36761</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C237">
         <v>3</v>
@@ -11493,7 +11493,7 @@
         <v>36762</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C238">
         <v>29</v>
@@ -11535,7 +11535,7 @@
         <v>36763</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C239">
         <v>6</v>
@@ -11577,7 +11577,7 @@
         <v>36764</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -11619,7 +11619,7 @@
         <v>36765</v>
       </c>
       <c r="B241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C241">
         <v>16</v>
@@ -11661,7 +11661,7 @@
         <v>36766</v>
       </c>
       <c r="B242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C242">
         <v>7</v>
@@ -11703,7 +11703,7 @@
         <v>36767</v>
       </c>
       <c r="B243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C243">
         <v>61</v>
@@ -11745,7 +11745,7 @@
         <v>36768</v>
       </c>
       <c r="B244" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C244">
         <v>17</v>
@@ -11787,7 +11787,7 @@
         <v>36769</v>
       </c>
       <c r="B245" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C245">
         <v>26</v>
@@ -11829,7 +11829,7 @@
         <v>36770</v>
       </c>
       <c r="B246" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C246">
         <v>24</v>
@@ -11871,7 +11871,7 @@
         <v>36771</v>
       </c>
       <c r="B247" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C247">
         <v>30</v>
@@ -11913,7 +11913,7 @@
         <v>36772</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C248">
         <v>4</v>
@@ -11955,7 +11955,7 @@
         <v>36773</v>
       </c>
       <c r="B249" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C249">
         <v>4</v>
@@ -11997,7 +11997,7 @@
         <v>36774</v>
       </c>
       <c r="B250" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C250">
         <v>19</v>
@@ -12039,7 +12039,7 @@
         <v>36775</v>
       </c>
       <c r="B251" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C251">
         <v>4</v>
@@ -12081,7 +12081,7 @@
         <v>36776</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C252">
         <v>15</v>
@@ -12123,7 +12123,7 @@
         <v>36777</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C253">
         <v>2</v>
@@ -12165,7 +12165,7 @@
         <v>36778</v>
       </c>
       <c r="B254" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C254">
         <v>15</v>
@@ -12207,7 +12207,7 @@
         <v>36779</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C255">
         <v>33</v>
@@ -12249,7 +12249,7 @@
         <v>36780</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C256">
         <v>3</v>
@@ -12291,7 +12291,7 @@
         <v>36781</v>
       </c>
       <c r="B257" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -12333,7 +12333,7 @@
         <v>36782</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C258">
         <v>0</v>
@@ -12375,7 +12375,7 @@
         <v>36783</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -12417,7 +12417,7 @@
         <v>36784</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C260">
         <v>14</v>
@@ -12459,7 +12459,7 @@
         <v>36785</v>
       </c>
       <c r="B261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C261">
         <v>6</v>
@@ -12501,7 +12501,7 @@
         <v>36786</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C262">
         <v>34</v>
@@ -12543,7 +12543,7 @@
         <v>36787</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C263">
         <v>5</v>
@@ -12585,7 +12585,7 @@
         <v>36788</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C264">
         <v>7</v>
@@ -12627,7 +12627,7 @@
         <v>36789</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -12669,7 +12669,7 @@
         <v>36790</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C266">
         <v>2</v>
@@ -12711,7 +12711,7 @@
         <v>36791</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C267">
         <v>4</v>
@@ -12753,7 +12753,7 @@
         <v>36792</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -12795,7 +12795,7 @@
         <v>36793</v>
       </c>
       <c r="B269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C269">
         <v>4</v>
@@ -12837,7 +12837,7 @@
         <v>36794</v>
       </c>
       <c r="B270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C270">
         <v>9</v>
@@ -12879,7 +12879,7 @@
         <v>36795</v>
       </c>
       <c r="B271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C271">
         <v>0</v>
@@ -12921,7 +12921,7 @@
         <v>36796</v>
       </c>
       <c r="B272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -12963,7 +12963,7 @@
         <v>36797</v>
       </c>
       <c r="B273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C273">
         <v>25</v>
@@ -13005,7 +13005,7 @@
         <v>36798</v>
       </c>
       <c r="B274" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>36799</v>
       </c>
       <c r="B275" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C275">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>36800</v>
       </c>
       <c r="B276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C276">
         <v>2</v>
@@ -13131,7 +13131,7 @@
         <v>36801</v>
       </c>
       <c r="B277" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C277">
         <v>0</v>
@@ -13173,7 +13173,7 @@
         <v>36802</v>
       </c>
       <c r="B278" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C278">
         <v>0</v>
@@ -13215,7 +13215,7 @@
         <v>36803</v>
       </c>
       <c r="B279" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C279">
         <v>0</v>
@@ -13257,7 +13257,7 @@
         <v>36804</v>
       </c>
       <c r="B280" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -13299,7 +13299,7 @@
         <v>36805</v>
       </c>
       <c r="B281" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C281">
         <v>0</v>
@@ -13341,7 +13341,7 @@
         <v>36806</v>
       </c>
       <c r="B282" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C282">
         <v>0</v>
@@ -13383,7 +13383,7 @@
         <v>36807</v>
       </c>
       <c r="B283" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -13425,7 +13425,7 @@
         <v>36808</v>
       </c>
       <c r="B284" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C284">
         <v>7</v>
@@ -13467,7 +13467,7 @@
         <v>36809</v>
       </c>
       <c r="B285" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C285">
         <v>3</v>
@@ -13509,7 +13509,7 @@
         <v>36810</v>
       </c>
       <c r="B286" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C286">
         <v>0</v>
@@ -13551,7 +13551,7 @@
         <v>36811</v>
       </c>
       <c r="B287" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C287">
         <v>2</v>
@@ -13593,7 +13593,7 @@
         <v>36812</v>
       </c>
       <c r="B288" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C288">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>36813</v>
       </c>
       <c r="B289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -13677,7 +13677,7 @@
         <v>36814</v>
       </c>
       <c r="B290" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C290">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>36815</v>
       </c>
       <c r="B291" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C291">
         <v>0</v>
@@ -13761,7 +13761,7 @@
         <v>36816</v>
       </c>
       <c r="B292" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C292">
         <v>0</v>
@@ -13803,7 +13803,7 @@
         <v>36817</v>
       </c>
       <c r="B293" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C293">
         <v>0</v>
@@ -13845,7 +13845,7 @@
         <v>36818</v>
       </c>
       <c r="B294" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C294">
         <v>0</v>
@@ -13887,7 +13887,7 @@
         <v>36819</v>
       </c>
       <c r="B295" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C295">
         <v>0</v>
@@ -13929,7 +13929,7 @@
         <v>36820</v>
       </c>
       <c r="B296" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C296">
         <v>0</v>
@@ -13971,7 +13971,7 @@
         <v>36821</v>
       </c>
       <c r="B297" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C297">
         <v>0</v>
@@ -14013,7 +14013,7 @@
         <v>36822</v>
       </c>
       <c r="B298" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C298">
         <v>9</v>
@@ -14055,7 +14055,7 @@
         <v>36823</v>
       </c>
       <c r="B299" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -14097,7 +14097,7 @@
         <v>36824</v>
       </c>
       <c r="B300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C300">
         <v>7</v>
@@ -14139,7 +14139,7 @@
         <v>36825</v>
       </c>
       <c r="B301" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C301">
         <v>0</v>
@@ -14181,7 +14181,7 @@
         <v>36826</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C302">
         <v>0</v>
@@ -14223,7 +14223,7 @@
         <v>36827</v>
       </c>
       <c r="B303" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C303">
         <v>0</v>
@@ -14265,7 +14265,7 @@
         <v>36828</v>
       </c>
       <c r="B304" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C304">
         <v>0</v>
@@ -14307,7 +14307,7 @@
         <v>36829</v>
       </c>
       <c r="B305" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C305">
         <v>0</v>
@@ -14349,7 +14349,7 @@
         <v>36830</v>
       </c>
       <c r="B306" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C306">
         <v>0</v>
@@ -14391,7 +14391,7 @@
         <v>36831</v>
       </c>
       <c r="B307" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C307">
         <v>0</v>
@@ -14433,7 +14433,7 @@
         <v>36832</v>
       </c>
       <c r="B308" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C308">
         <v>0</v>
@@ -14475,7 +14475,7 @@
         <v>36833</v>
       </c>
       <c r="B309" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -14517,7 +14517,7 @@
         <v>36834</v>
       </c>
       <c r="B310" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C310">
         <v>0</v>
@@ -14559,7 +14559,7 @@
         <v>36835</v>
       </c>
       <c r="B311" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C311">
         <v>0</v>
@@ -14601,7 +14601,7 @@
         <v>36836</v>
       </c>
       <c r="B312" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C312">
         <v>0</v>
@@ -14643,7 +14643,7 @@
         <v>36837</v>
       </c>
       <c r="B313" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C313">
         <v>0</v>
@@ -14685,7 +14685,7 @@
         <v>36838</v>
       </c>
       <c r="B314" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C314">
         <v>0</v>
@@ -14727,7 +14727,7 @@
         <v>36839</v>
       </c>
       <c r="B315" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C315">
         <v>0</v>
@@ -14769,7 +14769,7 @@
         <v>36840</v>
       </c>
       <c r="B316" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C316">
         <v>0</v>
@@ -14811,7 +14811,7 @@
         <v>36841</v>
       </c>
       <c r="B317" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C317">
         <v>0</v>
@@ -14853,7 +14853,7 @@
         <v>36842</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -14895,7 +14895,7 @@
         <v>36843</v>
       </c>
       <c r="B319" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C319">
         <v>0</v>
@@ -14937,7 +14937,7 @@
         <v>36844</v>
       </c>
       <c r="B320" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C320">
         <v>0</v>
@@ -14979,7 +14979,7 @@
         <v>36845</v>
       </c>
       <c r="B321" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C321">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         <v>36846</v>
       </c>
       <c r="B322" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C322">
         <v>0</v>
@@ -15063,7 +15063,7 @@
         <v>36847</v>
       </c>
       <c r="B323" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C323">
         <v>0</v>
@@ -15105,7 +15105,7 @@
         <v>36848</v>
       </c>
       <c r="B324" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C324">
         <v>0</v>
@@ -15147,7 +15147,7 @@
         <v>36849</v>
       </c>
       <c r="B325" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C325">
         <v>0</v>
@@ -15189,7 +15189,7 @@
         <v>36850</v>
       </c>
       <c r="B326" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -15231,7 +15231,7 @@
         <v>36851</v>
       </c>
       <c r="B327" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C327">
         <v>0</v>
@@ -15273,7 +15273,7 @@
         <v>36852</v>
       </c>
       <c r="B328" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C328">
         <v>0</v>
@@ -15315,7 +15315,7 @@
         <v>36853</v>
       </c>
       <c r="B329" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C329">
         <v>0</v>
@@ -15357,7 +15357,7 @@
         <v>36854</v>
       </c>
       <c r="B330" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C330">
         <v>0</v>
@@ -15399,7 +15399,7 @@
         <v>36855</v>
       </c>
       <c r="B331" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C331">
         <v>0</v>
@@ -15441,7 +15441,7 @@
         <v>36856</v>
       </c>
       <c r="B332" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C332">
         <v>0</v>
@@ -15483,7 +15483,7 @@
         <v>36857</v>
       </c>
       <c r="B333" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C333">
         <v>0</v>
@@ -15525,7 +15525,7 @@
         <v>36858</v>
       </c>
       <c r="B334" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C334">
         <v>0</v>
@@ -15567,7 +15567,7 @@
         <v>36859</v>
       </c>
       <c r="B335" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C335">
         <v>0</v>
@@ -15609,7 +15609,7 @@
         <v>36860</v>
       </c>
       <c r="B336" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C336">
         <v>0</v>
@@ -15651,7 +15651,7 @@
         <v>36861</v>
       </c>
       <c r="B337" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C337">
         <v>0</v>
@@ -15693,7 +15693,7 @@
         <v>36862</v>
       </c>
       <c r="B338" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C338">
         <v>0</v>
@@ -15735,7 +15735,7 @@
         <v>36863</v>
       </c>
       <c r="B339" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C339">
         <v>0</v>
@@ -15777,7 +15777,7 @@
         <v>36864</v>
       </c>
       <c r="B340" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C340">
         <v>0</v>
@@ -15819,7 +15819,7 @@
         <v>36865</v>
       </c>
       <c r="B341" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C341">
         <v>0</v>
@@ -15861,7 +15861,7 @@
         <v>36866</v>
       </c>
       <c r="B342" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C342">
         <v>0</v>
@@ -15903,7 +15903,7 @@
         <v>36867</v>
       </c>
       <c r="B343" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C343">
         <v>0</v>
@@ -15945,7 +15945,7 @@
         <v>36868</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C344">
         <v>0</v>
@@ -15987,7 +15987,7 @@
         <v>36869</v>
       </c>
       <c r="B345" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C345">
         <v>0</v>
@@ -16029,7 +16029,7 @@
         <v>36870</v>
       </c>
       <c r="B346" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C346">
         <v>0</v>
@@ -16071,7 +16071,7 @@
         <v>36871</v>
       </c>
       <c r="B347" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C347">
         <v>0</v>
@@ -16113,7 +16113,7 @@
         <v>36872</v>
       </c>
       <c r="B348" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C348">
         <v>2</v>
@@ -16155,7 +16155,7 @@
         <v>36873</v>
       </c>
       <c r="B349" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C349">
         <v>0</v>
@@ -16197,7 +16197,7 @@
         <v>36874</v>
       </c>
       <c r="B350" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C350">
         <v>0</v>
@@ -16239,7 +16239,7 @@
         <v>36875</v>
       </c>
       <c r="B351" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C351">
         <v>0</v>
@@ -16281,7 +16281,7 @@
         <v>36876</v>
       </c>
       <c r="B352" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C352">
         <v>0</v>
@@ -16323,7 +16323,7 @@
         <v>36877</v>
       </c>
       <c r="B353" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C353">
         <v>0</v>
@@ -16365,7 +16365,7 @@
         <v>36878</v>
       </c>
       <c r="B354" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C354">
         <v>0</v>
@@ -16407,7 +16407,7 @@
         <v>36879</v>
       </c>
       <c r="B355" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C355">
         <v>0</v>
@@ -16449,7 +16449,7 @@
         <v>36880</v>
       </c>
       <c r="B356" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C356">
         <v>0</v>
@@ -16491,7 +16491,7 @@
         <v>36881</v>
       </c>
       <c r="B357" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C357">
         <v>0</v>
@@ -16533,7 +16533,7 @@
         <v>36882</v>
       </c>
       <c r="B358" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C358">
         <v>0</v>
@@ -16575,7 +16575,7 @@
         <v>36883</v>
       </c>
       <c r="B359" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C359">
         <v>0</v>
@@ -16617,7 +16617,7 @@
         <v>36884</v>
       </c>
       <c r="B360" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C360">
         <v>0</v>
@@ -16659,7 +16659,7 @@
         <v>36885</v>
       </c>
       <c r="B361" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C361">
         <v>0</v>
@@ -16701,7 +16701,7 @@
         <v>36886</v>
       </c>
       <c r="B362" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C362">
         <v>0</v>
@@ -16743,7 +16743,7 @@
         <v>36887</v>
       </c>
       <c r="B363" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C363">
         <v>0</v>
@@ -16785,7 +16785,7 @@
         <v>36888</v>
       </c>
       <c r="B364" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C364">
         <v>0</v>
@@ -16827,7 +16827,7 @@
         <v>36889</v>
       </c>
       <c r="B365" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C365">
         <v>0</v>
@@ -16869,7 +16869,7 @@
         <v>36890</v>
       </c>
       <c r="B366" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C366">
         <v>0</v>
@@ -16911,7 +16911,7 @@
         <v>36891</v>
       </c>
       <c r="B367" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C367">
         <v>0</v>
